--- a/baseline-lcia/feedstock_lcia.xlsx
+++ b/baseline-lcia/feedstock_lcia.xlsx
@@ -114,7 +114,7 @@
     <t>Heat-HTC</t>
   </si>
   <si>
-    <t>'Carbon dioxide, non-fossil, resource correction' (kg, None, None)</t>
+    <t>'Carbon dioxide, non-fossil, resource correction' (kilogram, None, ('natural resource', 'in air'))</t>
   </si>
   <si>
     <t>CO2 - HTC</t>

--- a/baseline-lcia/feedstock_lcia.xlsx
+++ b/baseline-lcia/feedstock_lcia.xlsx
@@ -114,7 +114,7 @@
     <t>Heat-HTC</t>
   </si>
   <si>
-    <t>'Carbon dioxide, non-fossil, resource correction' (kilogram, None, ('natural resource', 'in air'))</t>
+    <t>'Carbon dioxide, non-fossil, resource correction' (kg, None, None)</t>
   </si>
   <si>
     <t>CO2 - HTC</t>
@@ -520,19 +520,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.11E-06</v>
+        <v>1.62E-08</v>
       </c>
       <c r="E4">
-        <v>0.000264</v>
+        <v>5.28E-07</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.4E-06</v>
+        <v>2.79E-09</v>
       </c>
       <c r="H4">
-        <v>0.000445</v>
+        <v>1.24E-08</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -546,19 +546,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.00044</v>
+        <v>8.81E-07</v>
       </c>
       <c r="E5">
-        <v>0.0143</v>
+        <v>2.86E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.58E-05</v>
+        <v>9.150000000000001E-08</v>
       </c>
       <c r="H5">
-        <v>0.0242</v>
+        <v>6.76E-07</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -572,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.2E-06</v>
+        <v>8.389999999999999E-09</v>
       </c>
       <c r="E6">
-        <v>0.000136</v>
+        <v>2.73E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9.769999999999999E-07</v>
+        <v>1.95E-09</v>
       </c>
       <c r="H6">
-        <v>0.00023</v>
+        <v>6.44E-09</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -598,19 +598,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00157</v>
+        <v>3.14E-06</v>
       </c>
       <c r="E7">
-        <v>0.051</v>
+        <v>0.000102</v>
       </c>
       <c r="F7">
-        <v>0.000732</v>
+        <v>1.46E-06</v>
       </c>
       <c r="G7">
-        <v>0.000404</v>
+        <v>8.07E-07</v>
       </c>
       <c r="H7">
-        <v>0.0861</v>
+        <v>2.41E-06</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -624,19 +624,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00061</v>
+        <v>1.22E-06</v>
       </c>
       <c r="E8">
-        <v>0.0198</v>
+        <v>3.97E-05</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00216</v>
+        <v>4.32E-06</v>
       </c>
       <c r="H8">
-        <v>0.0335</v>
+        <v>9.36E-07</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -650,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.93E-07</v>
+        <v>1.79E-09</v>
       </c>
       <c r="E9">
-        <v>2.9E-05</v>
+        <v>5.81E-08</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.69E-05</v>
+        <v>3.37E-08</v>
       </c>
       <c r="H9">
-        <v>4.9E-05</v>
+        <v>1.37E-09</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.34E-12</v>
+        <v>1.07E-14</v>
       </c>
       <c r="E10">
-        <v>1.74E-10</v>
+        <v>3.47E-13</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.14E-12</v>
+        <v>8.270000000000001E-15</v>
       </c>
       <c r="H10">
-        <v>2.93E-10</v>
+        <v>8.200000000000001E-15</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -702,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.34E-10</v>
+        <v>2.68E-13</v>
       </c>
       <c r="E11">
-        <v>4.35E-09</v>
+        <v>8.7E-12</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.66E-09</v>
+        <v>3.31E-12</v>
       </c>
       <c r="H11">
-        <v>7.34E-09</v>
+        <v>2.05E-13</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -728,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.12E-11</v>
+        <v>2.23E-14</v>
       </c>
       <c r="E12">
-        <v>3.63E-10</v>
+        <v>7.25E-13</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.55E-12</v>
+        <v>3.1E-15</v>
       </c>
       <c r="H12">
-        <v>6.12E-10</v>
+        <v>1.71E-14</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -754,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.45E-06</v>
+        <v>4.89E-09</v>
       </c>
       <c r="E13">
-        <v>7.949999999999999E-05</v>
+        <v>1.59E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.1E-07</v>
+        <v>4.2E-10</v>
       </c>
       <c r="H13">
-        <v>0.000134</v>
+        <v>3.75E-09</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.7E-05</v>
+        <v>9.399999999999999E-08</v>
       </c>
       <c r="E14">
-        <v>0.00153</v>
+        <v>3.06E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.43E-05</v>
+        <v>2.85E-08</v>
       </c>
       <c r="H14">
-        <v>0.00258</v>
+        <v>7.21E-08</v>
       </c>
     </row>
   </sheetData>
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>5.69E-07</v>
+        <v>1.14E-09</v>
       </c>
       <c r="D4">
-        <v>2.89E-05</v>
+        <v>5.79E-08</v>
       </c>
       <c r="E4">
-        <v>0.00106</v>
+        <v>2.12E-06</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.84E-06</v>
+        <v>3.69E-09</v>
       </c>
       <c r="H4">
-        <v>0.00598</v>
+        <v>1.67E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -887,22 +887,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>2.75E-05</v>
+        <v>5.49E-08</v>
       </c>
       <c r="D5">
-        <v>0.00157</v>
+        <v>3.14E-06</v>
       </c>
       <c r="E5">
-        <v>0.0575</v>
+        <v>0.000115</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.05E-05</v>
+        <v>1.21E-07</v>
       </c>
       <c r="H5">
-        <v>0.325</v>
+        <v>9.079999999999999E-06</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -913,22 +913,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>2.92E-07</v>
+        <v>5.83E-10</v>
       </c>
       <c r="D6">
-        <v>1.5E-05</v>
+        <v>2.99E-08</v>
       </c>
       <c r="E6">
-        <v>0.000548</v>
+        <v>1.1E-06</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.29E-06</v>
+        <v>2.58E-09</v>
       </c>
       <c r="H6">
-        <v>0.00309</v>
+        <v>8.65E-08</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -939,22 +939,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0.000101</v>
+        <v>2.02E-07</v>
       </c>
       <c r="D7">
-        <v>0.0056</v>
+        <v>1.12E-05</v>
       </c>
       <c r="E7">
-        <v>0.205</v>
+        <v>0.00041</v>
       </c>
       <c r="F7">
-        <v>0.00644</v>
+        <v>1.29E-05</v>
       </c>
       <c r="G7">
-        <v>0.000534</v>
+        <v>1.07E-06</v>
       </c>
       <c r="H7">
-        <v>1.16</v>
+        <v>3.24E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -965,22 +965,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>5.47E-05</v>
+        <v>1.09E-07</v>
       </c>
       <c r="D8">
-        <v>0.00218</v>
+        <v>4.35E-06</v>
       </c>
       <c r="E8">
-        <v>0.07969999999999999</v>
+        <v>0.000159</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00285</v>
+        <v>5.7E-06</v>
       </c>
       <c r="H8">
-        <v>0.45</v>
+        <v>1.26E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -991,22 +991,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>7.87E-08</v>
+        <v>1.57E-10</v>
       </c>
       <c r="D9">
-        <v>3.19E-06</v>
+        <v>6.37E-09</v>
       </c>
       <c r="E9">
-        <v>0.000117</v>
+        <v>2.33E-07</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.23E-05</v>
+        <v>4.46E-08</v>
       </c>
       <c r="H9">
-        <v>0.0006579999999999999</v>
+        <v>1.84E-08</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1017,22 +1017,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>5.09E-13</v>
+        <v>1.02E-15</v>
       </c>
       <c r="D10">
-        <v>1.91E-11</v>
+        <v>3.81E-14</v>
       </c>
       <c r="E10">
-        <v>6.98E-10</v>
+        <v>1.4E-12</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.47E-12</v>
+        <v>1.09E-14</v>
       </c>
       <c r="H10">
-        <v>3.94E-09</v>
+        <v>1.1E-13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1043,22 +1043,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>7.23E-12</v>
+        <v>1.45E-14</v>
       </c>
       <c r="D11">
-        <v>4.77E-10</v>
+        <v>9.550000000000001E-13</v>
       </c>
       <c r="E11">
-        <v>1.75E-08</v>
+        <v>3.5E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.19E-09</v>
+        <v>4.38E-12</v>
       </c>
       <c r="H11">
-        <v>9.86E-08</v>
+        <v>2.76E-12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1069,22 +1069,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>3.5E-11</v>
+        <v>7E-14</v>
       </c>
       <c r="D12">
-        <v>3.98E-11</v>
+        <v>7.96E-14</v>
       </c>
       <c r="E12">
-        <v>1.46E-09</v>
+        <v>2.91E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.05E-12</v>
+        <v>4.1E-15</v>
       </c>
       <c r="H12">
-        <v>8.22E-09</v>
+        <v>2.3E-13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1095,22 +1095,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>1.44E-07</v>
+        <v>2.88E-10</v>
       </c>
       <c r="D13">
-        <v>8.72E-06</v>
+        <v>1.74E-08</v>
       </c>
       <c r="E13">
-        <v>0.000319</v>
+        <v>6.39E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.78E-07</v>
+        <v>5.55E-10</v>
       </c>
       <c r="H13">
-        <v>0.0018</v>
+        <v>5.04E-08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1121,22 +1121,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>3.72E-06</v>
+        <v>7.43E-09</v>
       </c>
       <c r="D14">
-        <v>0.000168</v>
+        <v>3.35E-07</v>
       </c>
       <c r="E14">
-        <v>0.00614</v>
+        <v>1.23E-05</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.89E-05</v>
+        <v>3.77E-08</v>
       </c>
       <c r="H14">
-        <v>0.0347</v>
+        <v>9.69E-07</v>
       </c>
     </row>
   </sheetData>
@@ -1205,22 +1205,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>5.69E-07</v>
+        <v>1.14E-09</v>
       </c>
       <c r="D4">
-        <v>1.38E-05</v>
+        <v>2.76E-08</v>
       </c>
       <c r="E4">
-        <v>0.000563</v>
+        <v>1.13E-06</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.86E-06</v>
+        <v>3.72E-09</v>
       </c>
       <c r="H4">
-        <v>0.00551</v>
+        <v>1.54E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1231,22 +1231,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>2.75E-05</v>
+        <v>5.49E-08</v>
       </c>
       <c r="D5">
-        <v>0.000749</v>
+        <v>1.5E-06</v>
       </c>
       <c r="E5">
-        <v>0.0306</v>
+        <v>6.12E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.1E-05</v>
+        <v>1.22E-07</v>
       </c>
       <c r="H5">
-        <v>0.299</v>
+        <v>8.369999999999999E-06</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1257,22 +1257,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>2.92E-07</v>
+        <v>5.83E-10</v>
       </c>
       <c r="D6">
-        <v>7.14E-06</v>
+        <v>1.43E-08</v>
       </c>
       <c r="E6">
-        <v>0.000291</v>
+        <v>5.83E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.3E-06</v>
+        <v>2.61E-09</v>
       </c>
       <c r="H6">
-        <v>0.00285</v>
+        <v>7.970000000000001E-08</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1283,22 +1283,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0.000101</v>
+        <v>2.02E-07</v>
       </c>
       <c r="D7">
-        <v>0.00267</v>
+        <v>5.34E-06</v>
       </c>
       <c r="E7">
-        <v>0.109</v>
+        <v>0.000218</v>
       </c>
       <c r="F7">
-        <v>0.00712</v>
+        <v>1.42E-05</v>
       </c>
       <c r="G7">
-        <v>0.000538</v>
+        <v>1.08E-06</v>
       </c>
       <c r="H7">
-        <v>1.07</v>
+        <v>2.98E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1309,22 +1309,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>5.47E-05</v>
+        <v>1.09E-07</v>
       </c>
       <c r="D8">
-        <v>0.00104</v>
+        <v>2.08E-06</v>
       </c>
       <c r="E8">
-        <v>0.0424</v>
+        <v>8.47E-05</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00288</v>
+        <v>5.75E-06</v>
       </c>
       <c r="H8">
-        <v>0.415</v>
+        <v>1.16E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1335,22 +1335,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>7.87E-08</v>
+        <v>1.57E-10</v>
       </c>
       <c r="D9">
-        <v>1.52E-06</v>
+        <v>3.04E-09</v>
       </c>
       <c r="E9">
-        <v>6.2E-05</v>
+        <v>1.24E-07</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.25E-05</v>
+        <v>4.5E-08</v>
       </c>
       <c r="H9">
-        <v>0.000607</v>
+        <v>1.7E-08</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1361,22 +1361,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>5.09E-13</v>
+        <v>1.02E-15</v>
       </c>
       <c r="D10">
-        <v>9.089999999999999E-12</v>
+        <v>1.82E-14</v>
       </c>
       <c r="E10">
-        <v>3.71E-10</v>
+        <v>7.42E-13</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.52E-12</v>
+        <v>1.1E-14</v>
       </c>
       <c r="H10">
-        <v>3.63E-09</v>
+        <v>1.02E-13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1387,22 +1387,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>7.23E-12</v>
+        <v>1.45E-14</v>
       </c>
       <c r="D11">
-        <v>2.28E-10</v>
+        <v>4.55E-13</v>
       </c>
       <c r="E11">
-        <v>9.290000000000001E-09</v>
+        <v>1.86E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.21E-09</v>
+        <v>4.42E-12</v>
       </c>
       <c r="H11">
-        <v>9.09E-08</v>
+        <v>2.54E-12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1413,22 +1413,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>3.5E-11</v>
+        <v>7E-14</v>
       </c>
       <c r="D12">
-        <v>1.9E-11</v>
+        <v>3.8E-14</v>
       </c>
       <c r="E12">
-        <v>7.74E-10</v>
+        <v>1.55E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.07E-12</v>
+        <v>4.14E-15</v>
       </c>
       <c r="H12">
-        <v>7.580000000000001E-09</v>
+        <v>2.12E-13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1439,22 +1439,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>1.44E-07</v>
+        <v>2.88E-10</v>
       </c>
       <c r="D13">
-        <v>4.16E-06</v>
+        <v>8.319999999999999E-09</v>
       </c>
       <c r="E13">
-        <v>0.00017</v>
+        <v>3.4E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.8E-07</v>
+        <v>5.6E-10</v>
       </c>
       <c r="H13">
-        <v>0.00166</v>
+        <v>4.65E-08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1465,22 +1465,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>3.72E-06</v>
+        <v>7.43E-09</v>
       </c>
       <c r="D14">
-        <v>8.000000000000001E-05</v>
+        <v>1.6E-07</v>
       </c>
       <c r="E14">
-        <v>0.00326</v>
+        <v>6.53E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.9E-05</v>
+        <v>3.8E-08</v>
       </c>
       <c r="H14">
-        <v>0.0319</v>
+        <v>8.93E-07</v>
       </c>
     </row>
   </sheetData>
@@ -1549,22 +1549,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>5.69E-07</v>
+        <v>1.14E-09</v>
       </c>
       <c r="D4">
-        <v>2.91E-05</v>
+        <v>5.83E-08</v>
       </c>
       <c r="E4">
-        <v>0.0012</v>
+        <v>2.39E-06</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.85E-06</v>
+        <v>3.69E-09</v>
       </c>
       <c r="H4">
-        <v>0.0058</v>
+        <v>1.62E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1575,22 +1575,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>2.75E-05</v>
+        <v>5.49E-08</v>
       </c>
       <c r="D5">
-        <v>0.00158</v>
+        <v>3.16E-06</v>
       </c>
       <c r="E5">
-        <v>0.0649</v>
+        <v>0.00013</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.05E-05</v>
+        <v>1.21E-07</v>
       </c>
       <c r="H5">
-        <v>0.315</v>
+        <v>8.8E-06</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1601,22 +1601,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>2.92E-07</v>
+        <v>5.83E-10</v>
       </c>
       <c r="D6">
-        <v>1.51E-05</v>
+        <v>3.01E-08</v>
       </c>
       <c r="E6">
-        <v>0.000618</v>
+        <v>1.24E-06</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.29E-06</v>
+        <v>2.58E-09</v>
       </c>
       <c r="H6">
-        <v>0.003</v>
+        <v>8.39E-08</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1627,22 +1627,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0.000101</v>
+        <v>2.02E-07</v>
       </c>
       <c r="D7">
-        <v>0.00564</v>
+        <v>1.13E-05</v>
       </c>
       <c r="E7">
-        <v>0.231</v>
+        <v>0.000462</v>
       </c>
       <c r="F7">
-        <v>0.00859</v>
+        <v>1.72E-05</v>
       </c>
       <c r="G7">
-        <v>0.000534</v>
+        <v>1.07E-06</v>
       </c>
       <c r="H7">
-        <v>1.12</v>
+        <v>3.14E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1653,22 +1653,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>5.47E-05</v>
+        <v>1.09E-07</v>
       </c>
       <c r="D8">
-        <v>0.00219</v>
+        <v>4.38E-06</v>
       </c>
       <c r="E8">
-        <v>0.08989999999999999</v>
+        <v>0.00018</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00285</v>
+        <v>5.71E-06</v>
       </c>
       <c r="H8">
-        <v>0.436</v>
+        <v>1.22E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1679,22 +1679,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>7.87E-08</v>
+        <v>1.57E-10</v>
       </c>
       <c r="D9">
-        <v>3.21E-06</v>
+        <v>6.41E-09</v>
       </c>
       <c r="E9">
-        <v>0.000132</v>
+        <v>2.63E-07</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.23E-05</v>
+        <v>4.46E-08</v>
       </c>
       <c r="H9">
-        <v>0.000638</v>
+        <v>1.78E-08</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1705,22 +1705,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>5.09E-13</v>
+        <v>1.02E-15</v>
       </c>
       <c r="D10">
-        <v>1.92E-11</v>
+        <v>3.84E-14</v>
       </c>
       <c r="E10">
-        <v>7.87E-10</v>
+        <v>1.57E-12</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.47E-12</v>
+        <v>1.09E-14</v>
       </c>
       <c r="H10">
-        <v>3.82E-09</v>
+        <v>1.07E-13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1731,22 +1731,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>7.23E-12</v>
+        <v>1.45E-14</v>
       </c>
       <c r="D11">
-        <v>4.8E-10</v>
+        <v>9.61E-13</v>
       </c>
       <c r="E11">
-        <v>1.97E-08</v>
+        <v>3.94E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.19E-09</v>
+        <v>4.38E-12</v>
       </c>
       <c r="H11">
-        <v>9.56E-08</v>
+        <v>2.67E-12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1757,22 +1757,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>3.5E-11</v>
+        <v>7E-14</v>
       </c>
       <c r="D12">
-        <v>4.01E-11</v>
+        <v>8.009999999999999E-14</v>
       </c>
       <c r="E12">
-        <v>1.64E-09</v>
+        <v>3.29E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.05E-12</v>
+        <v>4.1E-15</v>
       </c>
       <c r="H12">
-        <v>7.97E-09</v>
+        <v>2.23E-13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1783,22 +1783,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>1.44E-07</v>
+        <v>2.88E-10</v>
       </c>
       <c r="D13">
-        <v>8.780000000000001E-06</v>
+        <v>1.76E-08</v>
       </c>
       <c r="E13">
-        <v>0.00036</v>
+        <v>7.2E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.78E-07</v>
+        <v>5.55E-10</v>
       </c>
       <c r="H13">
-        <v>0.00175</v>
+        <v>4.89E-08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1809,22 +1809,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>3.72E-06</v>
+        <v>7.43E-09</v>
       </c>
       <c r="D14">
-        <v>0.000169</v>
+        <v>3.38E-07</v>
       </c>
       <c r="E14">
-        <v>0.00692</v>
+        <v>1.38E-05</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.89E-05</v>
+        <v>3.77E-08</v>
       </c>
       <c r="H14">
-        <v>0.0336</v>
+        <v>9.4E-07</v>
       </c>
     </row>
   </sheetData>
@@ -1893,22 +1893,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>3.77E-07</v>
+        <v>7.55E-10</v>
       </c>
       <c r="D4">
-        <v>1.54E-05</v>
+        <v>3.07E-08</v>
       </c>
       <c r="E4">
-        <v>0.000523</v>
+        <v>1.05E-06</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.54E-06</v>
+        <v>3.08E-09</v>
       </c>
       <c r="H4">
-        <v>0.008370000000000001</v>
+        <v>2.34E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1919,22 +1919,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1.82E-05</v>
+        <v>3.65E-08</v>
       </c>
       <c r="D5">
-        <v>0.000833</v>
+        <v>1.67E-06</v>
       </c>
       <c r="E5">
-        <v>0.0284</v>
+        <v>5.68E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>5.05E-05</v>
+        <v>1.01E-07</v>
       </c>
       <c r="H5">
-        <v>0.454</v>
+        <v>1.27E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1945,22 +1945,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1.94E-07</v>
+        <v>3.87E-10</v>
       </c>
       <c r="D6">
-        <v>7.94E-06</v>
+        <v>1.59E-08</v>
       </c>
       <c r="E6">
-        <v>0.000271</v>
+        <v>5.41E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.08E-06</v>
+        <v>2.16E-09</v>
       </c>
       <c r="H6">
-        <v>0.00433</v>
+        <v>1.21E-07</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1971,22 +1971,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>6.71E-05</v>
+        <v>1.34E-07</v>
       </c>
       <c r="D7">
-        <v>0.00297</v>
+        <v>5.94E-06</v>
       </c>
       <c r="E7">
-        <v>0.101</v>
+        <v>0.000202</v>
       </c>
       <c r="F7">
-        <v>0.00155</v>
+        <v>3.1E-06</v>
       </c>
       <c r="G7">
-        <v>0.000445</v>
+        <v>8.91E-07</v>
       </c>
       <c r="H7">
-        <v>1.62</v>
+        <v>4.53E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1997,22 +1997,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>3.63E-05</v>
+        <v>7.26E-08</v>
       </c>
       <c r="D8">
-        <v>0.00115</v>
+        <v>2.31E-06</v>
       </c>
       <c r="E8">
-        <v>0.0393</v>
+        <v>7.87E-05</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00238</v>
+        <v>4.76E-06</v>
       </c>
       <c r="H8">
-        <v>0.629</v>
+        <v>1.76E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2023,22 +2023,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>5.22E-08</v>
+        <v>1.04E-10</v>
       </c>
       <c r="D9">
-        <v>1.69E-06</v>
+        <v>3.38E-09</v>
       </c>
       <c r="E9">
-        <v>5.76E-05</v>
+        <v>1.15E-07</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.86E-05</v>
+        <v>3.72E-08</v>
       </c>
       <c r="H9">
-        <v>0.0009210000000000001</v>
+        <v>2.57E-08</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2049,22 +2049,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>3.38E-13</v>
+        <v>6.76E-16</v>
       </c>
       <c r="D10">
-        <v>1.01E-11</v>
+        <v>2.02E-14</v>
       </c>
       <c r="E10">
-        <v>3.44E-10</v>
+        <v>6.89E-13</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.56E-12</v>
+        <v>9.12E-15</v>
       </c>
       <c r="H10">
-        <v>5.51E-09</v>
+        <v>1.54E-13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2075,22 +2075,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>4.8E-12</v>
+        <v>9.6E-15</v>
       </c>
       <c r="D11">
-        <v>2.53E-10</v>
+        <v>5.06E-13</v>
       </c>
       <c r="E11">
-        <v>8.63E-09</v>
+        <v>1.73E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.83E-09</v>
+        <v>3.65E-12</v>
       </c>
       <c r="H11">
-        <v>1.38E-07</v>
+        <v>3.86E-12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2101,22 +2101,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>2.32E-11</v>
+        <v>4.65E-14</v>
       </c>
       <c r="D12">
-        <v>2.11E-11</v>
+        <v>4.22E-14</v>
       </c>
       <c r="E12">
-        <v>7.19E-10</v>
+        <v>1.44E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.71E-12</v>
+        <v>3.42E-15</v>
       </c>
       <c r="H12">
-        <v>1.15E-08</v>
+        <v>3.22E-13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2127,22 +2127,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>9.55E-08</v>
+        <v>1.91E-10</v>
       </c>
       <c r="D13">
-        <v>4.63E-06</v>
+        <v>9.25E-09</v>
       </c>
       <c r="E13">
-        <v>0.000158</v>
+        <v>3.15E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.32E-07</v>
+        <v>4.63E-10</v>
       </c>
       <c r="H13">
-        <v>0.00252</v>
+        <v>7.05E-08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2153,22 +2153,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>2.47E-06</v>
+        <v>4.93E-09</v>
       </c>
       <c r="D14">
-        <v>8.890000000000001E-05</v>
+        <v>1.78E-07</v>
       </c>
       <c r="E14">
-        <v>0.00303</v>
+        <v>6.06E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.57E-05</v>
+        <v>3.15E-08</v>
       </c>
       <c r="H14">
-        <v>0.0485</v>
+        <v>1.36E-06</v>
       </c>
     </row>
   </sheetData>
@@ -2237,22 +2237,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>3.77E-07</v>
+        <v>7.55E-10</v>
       </c>
       <c r="D4">
-        <v>4.06E-05</v>
+        <v>8.11E-08</v>
       </c>
       <c r="E4">
-        <v>0.0013</v>
+        <v>2.6E-06</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.49E-06</v>
+        <v>2.99E-09</v>
       </c>
       <c r="H4">
-        <v>0.00944</v>
+        <v>2.64E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2263,22 +2263,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1.82E-05</v>
+        <v>3.65E-08</v>
       </c>
       <c r="D5">
-        <v>0.0022</v>
+        <v>4.4E-06</v>
       </c>
       <c r="E5">
-        <v>0.0706</v>
+        <v>0.000141</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.9E-05</v>
+        <v>9.81E-08</v>
       </c>
       <c r="H5">
-        <v>0.513</v>
+        <v>1.43E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2289,22 +2289,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1.94E-07</v>
+        <v>3.87E-10</v>
       </c>
       <c r="D6">
-        <v>2.1E-05</v>
+        <v>4.2E-08</v>
       </c>
       <c r="E6">
-        <v>0.000673</v>
+        <v>1.35E-06</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.05E-06</v>
+        <v>2.09E-09</v>
       </c>
       <c r="H6">
-        <v>0.00488</v>
+        <v>1.37E-07</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2315,22 +2315,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>6.71E-05</v>
+        <v>1.34E-07</v>
       </c>
       <c r="D7">
-        <v>0.007849999999999999</v>
+        <v>1.57E-05</v>
       </c>
       <c r="E7">
-        <v>0.252</v>
+        <v>0.000503</v>
       </c>
       <c r="F7">
-        <v>0.00249</v>
+        <v>4.98E-06</v>
       </c>
       <c r="G7">
-        <v>0.000433</v>
+        <v>8.65E-07</v>
       </c>
       <c r="H7">
-        <v>1.83</v>
+        <v>5.11E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2341,22 +2341,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>3.63E-05</v>
+        <v>7.26E-08</v>
       </c>
       <c r="D8">
-        <v>0.00305</v>
+        <v>6.1E-06</v>
       </c>
       <c r="E8">
-        <v>0.0978</v>
+        <v>0.000196</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00231</v>
+        <v>4.62E-06</v>
       </c>
       <c r="H8">
-        <v>0.71</v>
+        <v>1.99E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2367,22 +2367,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>5.22E-08</v>
+        <v>1.04E-10</v>
       </c>
       <c r="D9">
-        <v>4.46E-06</v>
+        <v>8.93E-09</v>
       </c>
       <c r="E9">
-        <v>0.000143</v>
+        <v>2.86E-07</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.81E-05</v>
+        <v>3.61E-08</v>
       </c>
       <c r="H9">
-        <v>0.00104</v>
+        <v>2.91E-08</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2393,22 +2393,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>3.38E-13</v>
+        <v>6.76E-16</v>
       </c>
       <c r="D10">
-        <v>2.67E-11</v>
+        <v>5.34E-14</v>
       </c>
       <c r="E10">
-        <v>8.57E-10</v>
+        <v>1.71E-12</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.43E-12</v>
+        <v>8.86E-15</v>
       </c>
       <c r="H10">
-        <v>6.22E-09</v>
+        <v>1.74E-13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2419,22 +2419,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>4.8E-12</v>
+        <v>9.6E-15</v>
       </c>
       <c r="D11">
-        <v>6.69E-10</v>
+        <v>1.34E-12</v>
       </c>
       <c r="E11">
-        <v>2.15E-08</v>
+        <v>4.29E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.77E-09</v>
+        <v>3.55E-12</v>
       </c>
       <c r="H11">
-        <v>1.56E-07</v>
+        <v>4.36E-12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2445,22 +2445,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>2.32E-11</v>
+        <v>4.65E-14</v>
       </c>
       <c r="D12">
-        <v>5.58E-11</v>
+        <v>1.12E-13</v>
       </c>
       <c r="E12">
-        <v>1.79E-09</v>
+        <v>3.58E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.66E-12</v>
+        <v>3.32E-15</v>
       </c>
       <c r="H12">
-        <v>1.3E-08</v>
+        <v>3.63E-13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2471,22 +2471,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>9.55E-08</v>
+        <v>1.91E-10</v>
       </c>
       <c r="D13">
-        <v>1.22E-05</v>
+        <v>2.44E-08</v>
       </c>
       <c r="E13">
-        <v>0.000392</v>
+        <v>7.84E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.25E-07</v>
+        <v>4.5E-10</v>
       </c>
       <c r="H13">
-        <v>0.00285</v>
+        <v>7.96E-08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2497,22 +2497,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>2.47E-06</v>
+        <v>4.93E-09</v>
       </c>
       <c r="D14">
-        <v>0.000235</v>
+        <v>4.7E-07</v>
       </c>
       <c r="E14">
-        <v>0.00754</v>
+        <v>1.51E-05</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.53E-05</v>
+        <v>3.06E-08</v>
       </c>
       <c r="H14">
-        <v>0.0547</v>
+        <v>1.53E-06</v>
       </c>
     </row>
   </sheetData>
@@ -2581,22 +2581,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>3.77E-07</v>
+        <v>7.55E-10</v>
       </c>
       <c r="D4">
-        <v>1.82E-05</v>
+        <v>3.63E-08</v>
       </c>
       <c r="E4">
-        <v>0.0006890000000000001</v>
+        <v>1.38E-06</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.48E-06</v>
+        <v>2.95E-09</v>
       </c>
       <c r="H4">
-        <v>0.009889999999999999</v>
+        <v>2.77E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2607,22 +2607,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1.82E-05</v>
+        <v>3.65E-08</v>
       </c>
       <c r="D5">
-        <v>0.000985</v>
+        <v>1.97E-06</v>
       </c>
       <c r="E5">
-        <v>0.0374</v>
+        <v>7.48E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.84E-05</v>
+        <v>9.680000000000001E-08</v>
       </c>
       <c r="H5">
-        <v>0.537</v>
+        <v>1.5E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2633,22 +2633,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1.94E-07</v>
+        <v>3.87E-10</v>
       </c>
       <c r="D6">
-        <v>9.39E-06</v>
+        <v>1.88E-08</v>
       </c>
       <c r="E6">
-        <v>0.000356</v>
+        <v>7.12E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.03E-06</v>
+        <v>2.07E-09</v>
       </c>
       <c r="H6">
-        <v>0.00511</v>
+        <v>1.43E-07</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2659,22 +2659,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>6.71E-05</v>
+        <v>1.34E-07</v>
       </c>
       <c r="D7">
-        <v>0.00351</v>
+        <v>7.02E-06</v>
       </c>
       <c r="E7">
-        <v>0.133</v>
+        <v>0.000266</v>
       </c>
       <c r="F7">
-        <v>0.00343</v>
+        <v>6.85E-06</v>
       </c>
       <c r="G7">
-        <v>0.000427</v>
+        <v>8.54E-07</v>
       </c>
       <c r="H7">
-        <v>1.91</v>
+        <v>5.35E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2685,22 +2685,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>3.63E-05</v>
+        <v>7.26E-08</v>
       </c>
       <c r="D8">
-        <v>0.00136</v>
+        <v>2.73E-06</v>
       </c>
       <c r="E8">
-        <v>0.0518</v>
+        <v>0.000104</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00228</v>
+        <v>4.56E-06</v>
       </c>
       <c r="H8">
-        <v>0.744</v>
+        <v>2.08E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2711,22 +2711,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>5.22E-08</v>
+        <v>1.04E-10</v>
       </c>
       <c r="D9">
-        <v>2E-06</v>
+        <v>3.99E-09</v>
       </c>
       <c r="E9">
-        <v>7.58E-05</v>
+        <v>1.52E-07</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.78E-05</v>
+        <v>3.57E-08</v>
       </c>
       <c r="H9">
-        <v>0.00109</v>
+        <v>3.04E-08</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2737,22 +2737,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>3.38E-13</v>
+        <v>6.76E-16</v>
       </c>
       <c r="D10">
-        <v>1.2E-11</v>
+        <v>2.39E-14</v>
       </c>
       <c r="E10">
-        <v>4.53E-10</v>
+        <v>9.07E-13</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.37E-12</v>
+        <v>8.750000000000001E-15</v>
       </c>
       <c r="H10">
-        <v>6.51E-09</v>
+        <v>1.82E-13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2763,22 +2763,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>4.8E-12</v>
+        <v>9.6E-15</v>
       </c>
       <c r="D11">
-        <v>2.99E-10</v>
+        <v>5.99E-13</v>
       </c>
       <c r="E11">
-        <v>1.14E-08</v>
+        <v>2.27E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.75E-09</v>
+        <v>3.5E-12</v>
       </c>
       <c r="H11">
-        <v>1.63E-07</v>
+        <v>4.56E-12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2789,22 +2789,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>2.32E-11</v>
+        <v>4.65E-14</v>
       </c>
       <c r="D12">
-        <v>2.49E-11</v>
+        <v>4.99E-14</v>
       </c>
       <c r="E12">
-        <v>9.46E-10</v>
+        <v>1.89E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.64E-12</v>
+        <v>3.28E-15</v>
       </c>
       <c r="H12">
-        <v>1.36E-08</v>
+        <v>3.8E-13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2815,22 +2815,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>9.55E-08</v>
+        <v>1.91E-10</v>
       </c>
       <c r="D13">
-        <v>5.47E-06</v>
+        <v>1.09E-08</v>
       </c>
       <c r="E13">
-        <v>0.000207</v>
+        <v>4.15E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.22E-07</v>
+        <v>4.44E-10</v>
       </c>
       <c r="H13">
-        <v>0.00298</v>
+        <v>8.33E-08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2841,22 +2841,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>2.47E-06</v>
+        <v>4.93E-09</v>
       </c>
       <c r="D14">
-        <v>0.000105</v>
+        <v>2.1E-07</v>
       </c>
       <c r="E14">
-        <v>0.00399</v>
+        <v>7.98E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.51E-05</v>
+        <v>3.02E-08</v>
       </c>
       <c r="H14">
-        <v>0.0573</v>
+        <v>1.6E-06</v>
       </c>
     </row>
   </sheetData>
@@ -2925,22 +2925,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>3.77E-07</v>
+        <v>7.55E-10</v>
       </c>
       <c r="D4">
-        <v>4.44E-05</v>
+        <v>8.88E-08</v>
       </c>
       <c r="E4">
-        <v>0.00165</v>
+        <v>3.29E-06</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.46E-06</v>
+        <v>2.92E-09</v>
       </c>
       <c r="H4">
-        <v>0.0102</v>
+        <v>2.86E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2951,22 +2951,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1.82E-05</v>
+        <v>3.65E-08</v>
       </c>
       <c r="D5">
-        <v>0.00241</v>
+        <v>4.82E-06</v>
       </c>
       <c r="E5">
-        <v>0.0893</v>
+        <v>0.000179</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.79E-05</v>
+        <v>9.57E-08</v>
       </c>
       <c r="H5">
-        <v>0.555</v>
+        <v>1.55E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2977,22 +2977,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1.94E-07</v>
+        <v>3.87E-10</v>
       </c>
       <c r="D6">
-        <v>2.3E-05</v>
+        <v>4.59E-08</v>
       </c>
       <c r="E6">
-        <v>0.000851</v>
+        <v>1.7E-06</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.02E-06</v>
+        <v>2.04E-09</v>
       </c>
       <c r="H6">
-        <v>0.00529</v>
+        <v>1.48E-07</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3003,22 +3003,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>6.71E-05</v>
+        <v>1.34E-07</v>
       </c>
       <c r="D7">
-        <v>0.00859</v>
+        <v>1.72E-05</v>
       </c>
       <c r="E7">
-        <v>0.318</v>
+        <v>0.000636</v>
       </c>
       <c r="F7">
-        <v>0.00467</v>
+        <v>9.34E-06</v>
       </c>
       <c r="G7">
-        <v>0.000422</v>
+        <v>8.44E-07</v>
       </c>
       <c r="H7">
-        <v>1.98</v>
+        <v>5.53E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3029,22 +3029,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>3.63E-05</v>
+        <v>7.26E-08</v>
       </c>
       <c r="D8">
-        <v>0.00334</v>
+        <v>6.68E-06</v>
       </c>
       <c r="E8">
-        <v>0.124</v>
+        <v>0.000247</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00226</v>
+        <v>4.51E-06</v>
       </c>
       <c r="H8">
-        <v>0.769</v>
+        <v>2.15E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3055,22 +3055,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>5.22E-08</v>
+        <v>1.04E-10</v>
       </c>
       <c r="D9">
-        <v>4.88E-06</v>
+        <v>9.770000000000001E-09</v>
       </c>
       <c r="E9">
-        <v>0.000181</v>
+        <v>3.62E-07</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.76E-05</v>
+        <v>3.53E-08</v>
       </c>
       <c r="H9">
-        <v>0.00112</v>
+        <v>3.15E-08</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3081,22 +3081,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>3.38E-13</v>
+        <v>6.76E-16</v>
       </c>
       <c r="D10">
-        <v>2.92E-11</v>
+        <v>5.85E-14</v>
       </c>
       <c r="E10">
-        <v>1.08E-09</v>
+        <v>2.17E-12</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.32E-12</v>
+        <v>8.65E-15</v>
       </c>
       <c r="H10">
-        <v>6.73E-09</v>
+        <v>1.88E-13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3107,22 +3107,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>4.8E-12</v>
+        <v>9.6E-15</v>
       </c>
       <c r="D11">
-        <v>7.32E-10</v>
+        <v>1.46E-12</v>
       </c>
       <c r="E11">
-        <v>2.71E-08</v>
+        <v>5.42E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.73E-09</v>
+        <v>3.46E-12</v>
       </c>
       <c r="H11">
-        <v>1.69E-07</v>
+        <v>4.71E-12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3133,22 +3133,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>2.32E-11</v>
+        <v>4.65E-14</v>
       </c>
       <c r="D12">
-        <v>6.1E-11</v>
+        <v>1.22E-13</v>
       </c>
       <c r="E12">
-        <v>2.26E-09</v>
+        <v>4.52E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.62E-12</v>
+        <v>3.24E-15</v>
       </c>
       <c r="H12">
-        <v>1.4E-08</v>
+        <v>3.93E-13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3159,22 +3159,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>9.55E-08</v>
+        <v>1.91E-10</v>
       </c>
       <c r="D13">
-        <v>1.34E-05</v>
+        <v>2.68E-08</v>
       </c>
       <c r="E13">
-        <v>0.000496</v>
+        <v>9.909999999999999E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.2E-07</v>
+        <v>4.39E-10</v>
       </c>
       <c r="H13">
-        <v>0.00308</v>
+        <v>8.62E-08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3185,22 +3185,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>2.47E-06</v>
+        <v>4.93E-09</v>
       </c>
       <c r="D14">
-        <v>0.000257</v>
+        <v>5.14E-07</v>
       </c>
       <c r="E14">
-        <v>0.00953</v>
+        <v>1.91E-05</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.49E-05</v>
+        <v>2.98E-08</v>
       </c>
       <c r="H14">
-        <v>0.0592</v>
+        <v>1.66E-06</v>
       </c>
     </row>
   </sheetData>
@@ -3269,22 +3269,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>3.77E-07</v>
+        <v>7.55E-10</v>
       </c>
       <c r="D4">
-        <v>1.89E-05</v>
+        <v>3.78E-08</v>
       </c>
       <c r="E4">
-        <v>0.000789</v>
+        <v>1.58E-06</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.48E-06</v>
+        <v>2.95E-09</v>
       </c>
       <c r="H4">
-        <v>0.009769999999999999</v>
+        <v>2.73E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3295,22 +3295,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1.82E-05</v>
+        <v>3.65E-08</v>
       </c>
       <c r="D5">
-        <v>0.00102</v>
+        <v>2.05E-06</v>
       </c>
       <c r="E5">
-        <v>0.0428</v>
+        <v>8.57E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.84E-05</v>
+        <v>9.69E-08</v>
       </c>
       <c r="H5">
-        <v>0.53</v>
+        <v>1.48E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3321,22 +3321,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1.94E-07</v>
+        <v>3.87E-10</v>
       </c>
       <c r="D6">
-        <v>9.76E-06</v>
+        <v>1.95E-08</v>
       </c>
       <c r="E6">
-        <v>0.000408</v>
+        <v>8.16E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.03E-06</v>
+        <v>2.07E-09</v>
       </c>
       <c r="H6">
-        <v>0.00505</v>
+        <v>1.41E-07</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3347,22 +3347,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>6.71E-05</v>
+        <v>1.34E-07</v>
       </c>
       <c r="D7">
-        <v>0.00365</v>
+        <v>7.3E-06</v>
       </c>
       <c r="E7">
-        <v>0.153</v>
+        <v>0.000305</v>
       </c>
       <c r="F7">
-        <v>0.00451</v>
+        <v>9.02E-06</v>
       </c>
       <c r="G7">
-        <v>0.000427</v>
+        <v>8.55E-07</v>
       </c>
       <c r="H7">
-        <v>1.89</v>
+        <v>5.28E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3373,22 +3373,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>3.63E-05</v>
+        <v>7.26E-08</v>
       </c>
       <c r="D8">
-        <v>0.00142</v>
+        <v>2.84E-06</v>
       </c>
       <c r="E8">
-        <v>0.0594</v>
+        <v>0.000119</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00228</v>
+        <v>4.57E-06</v>
       </c>
       <c r="H8">
-        <v>0.734</v>
+        <v>2.05E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3399,22 +3399,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>5.22E-08</v>
+        <v>1.04E-10</v>
       </c>
       <c r="D9">
-        <v>2.08E-06</v>
+        <v>4.16E-09</v>
       </c>
       <c r="E9">
-        <v>8.69E-05</v>
+        <v>1.74E-07</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.78E-05</v>
+        <v>3.57E-08</v>
       </c>
       <c r="H9">
-        <v>0.00107</v>
+        <v>3.01E-08</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3425,22 +3425,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>3.38E-13</v>
+        <v>6.76E-16</v>
       </c>
       <c r="D10">
-        <v>1.24E-11</v>
+        <v>2.49E-14</v>
       </c>
       <c r="E10">
-        <v>5.2E-10</v>
+        <v>1.04E-12</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.38E-12</v>
+        <v>8.76E-15</v>
       </c>
       <c r="H10">
-        <v>6.43E-09</v>
+        <v>1.8E-13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3451,22 +3451,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>4.8E-12</v>
+        <v>9.6E-15</v>
       </c>
       <c r="D11">
-        <v>3.11E-10</v>
+        <v>6.23E-13</v>
       </c>
       <c r="E11">
-        <v>1.3E-08</v>
+        <v>2.6E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.75E-09</v>
+        <v>3.5E-12</v>
       </c>
       <c r="H11">
-        <v>1.61E-07</v>
+        <v>4.5E-12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3477,22 +3477,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>2.32E-11</v>
+        <v>4.65E-14</v>
       </c>
       <c r="D12">
-        <v>2.6E-11</v>
+        <v>5.19E-14</v>
       </c>
       <c r="E12">
-        <v>1.08E-09</v>
+        <v>2.17E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.64E-12</v>
+        <v>3.28E-15</v>
       </c>
       <c r="H12">
-        <v>1.34E-08</v>
+        <v>3.75E-13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3503,22 +3503,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>9.55E-08</v>
+        <v>1.91E-10</v>
       </c>
       <c r="D13">
-        <v>5.69E-06</v>
+        <v>1.14E-08</v>
       </c>
       <c r="E13">
-        <v>0.000238</v>
+        <v>4.76E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.22E-07</v>
+        <v>4.44E-10</v>
       </c>
       <c r="H13">
-        <v>0.00294</v>
+        <v>8.23E-08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3529,22 +3529,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>2.47E-06</v>
+        <v>4.93E-09</v>
       </c>
       <c r="D14">
-        <v>0.000109</v>
+        <v>2.19E-07</v>
       </c>
       <c r="E14">
-        <v>0.00457</v>
+        <v>9.140000000000001E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.51E-05</v>
+        <v>3.02E-08</v>
       </c>
       <c r="H14">
-        <v>0.0566</v>
+        <v>1.58E-06</v>
       </c>
     </row>
   </sheetData>
@@ -3613,22 +3613,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>3.77E-07</v>
+        <v>7.55E-10</v>
       </c>
       <c r="D4">
-        <v>4.6E-05</v>
+        <v>9.2E-08</v>
       </c>
       <c r="E4">
-        <v>0.00193</v>
+        <v>3.86E-06</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.45E-06</v>
+        <v>2.9E-09</v>
       </c>
       <c r="H4">
-        <v>0.0104</v>
+        <v>2.91E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3639,22 +3639,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1.82E-05</v>
+        <v>3.65E-08</v>
       </c>
       <c r="D5">
-        <v>0.0025</v>
+        <v>4.99E-06</v>
       </c>
       <c r="E5">
-        <v>0.105</v>
+        <v>0.00021</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.76E-05</v>
+        <v>9.53E-08</v>
       </c>
       <c r="H5">
-        <v>0.5649999999999999</v>
+        <v>1.58E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3665,22 +3665,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1.94E-07</v>
+        <v>3.87E-10</v>
       </c>
       <c r="D6">
-        <v>2.38E-05</v>
+        <v>4.76E-08</v>
       </c>
       <c r="E6">
-        <v>0.0009990000000000001</v>
+        <v>2E-06</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.02E-06</v>
+        <v>2.03E-09</v>
       </c>
       <c r="H6">
-        <v>0.00539</v>
+        <v>1.51E-07</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3691,22 +3691,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>6.71E-05</v>
+        <v>1.34E-07</v>
       </c>
       <c r="D7">
-        <v>0.0089</v>
+        <v>1.78E-05</v>
       </c>
       <c r="E7">
-        <v>0.374</v>
+        <v>0.0007470000000000001</v>
       </c>
       <c r="F7">
-        <v>0.00449</v>
+        <v>8.98E-06</v>
       </c>
       <c r="G7">
-        <v>0.00042</v>
+        <v>8.4E-07</v>
       </c>
       <c r="H7">
-        <v>2.01</v>
+        <v>5.63E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3717,22 +3717,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>3.63E-05</v>
+        <v>7.26E-08</v>
       </c>
       <c r="D8">
-        <v>0.00346</v>
+        <v>6.92E-06</v>
       </c>
       <c r="E8">
-        <v>0.145</v>
+        <v>0.000291</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00225</v>
+        <v>4.49E-06</v>
       </c>
       <c r="H8">
-        <v>0.783</v>
+        <v>2.19E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3743,22 +3743,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>5.22E-08</v>
+        <v>1.04E-10</v>
       </c>
       <c r="D9">
-        <v>5.06E-06</v>
+        <v>1.01E-08</v>
       </c>
       <c r="E9">
-        <v>0.000213</v>
+        <v>4.25E-07</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.75E-05</v>
+        <v>3.51E-08</v>
       </c>
       <c r="H9">
-        <v>0.00115</v>
+        <v>3.21E-08</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3769,22 +3769,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>3.38E-13</v>
+        <v>6.76E-16</v>
       </c>
       <c r="D10">
-        <v>3.03E-11</v>
+        <v>6.06E-14</v>
       </c>
       <c r="E10">
-        <v>1.27E-09</v>
+        <v>2.54E-12</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.3E-12</v>
+        <v>8.610000000000001E-15</v>
       </c>
       <c r="H10">
-        <v>6.86E-09</v>
+        <v>1.92E-13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3795,22 +3795,22 @@
         <v>18</v>
       </c>
       <c r="C11">
+        <v>9.6E-15</v>
+      </c>
+      <c r="D11">
+        <v>1.52E-12</v>
+      </c>
+      <c r="E11">
+        <v>6.37E-11</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3.45E-12</v>
+      </c>
+      <c r="H11">
         <v>4.8E-12</v>
-      </c>
-      <c r="D11">
-        <v>7.59E-10</v>
-      </c>
-      <c r="E11">
-        <v>3.19E-08</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1.72E-09</v>
-      </c>
-      <c r="H11">
-        <v>1.72E-07</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3821,22 +3821,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>2.32E-11</v>
+        <v>4.65E-14</v>
       </c>
       <c r="D12">
-        <v>6.32E-11</v>
+        <v>1.26E-13</v>
       </c>
       <c r="E12">
-        <v>2.66E-09</v>
+        <v>5.31E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.61E-12</v>
+        <v>3.23E-15</v>
       </c>
       <c r="H12">
-        <v>1.43E-08</v>
+        <v>4E-13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3847,22 +3847,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>9.55E-08</v>
+        <v>1.91E-10</v>
       </c>
       <c r="D13">
-        <v>1.39E-05</v>
+        <v>2.77E-08</v>
       </c>
       <c r="E13">
-        <v>0.0005820000000000001</v>
+        <v>1.16E-06</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.18E-07</v>
+        <v>4.37E-10</v>
       </c>
       <c r="H13">
-        <v>0.00314</v>
+        <v>8.780000000000001E-08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3873,22 +3873,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>2.47E-06</v>
+        <v>4.93E-09</v>
       </c>
       <c r="D14">
-        <v>0.000267</v>
+        <v>5.33E-07</v>
       </c>
       <c r="E14">
-        <v>0.0112</v>
+        <v>2.24E-05</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.48E-05</v>
+        <v>2.97E-08</v>
       </c>
       <c r="H14">
-        <v>0.0603</v>
+        <v>1.69E-06</v>
       </c>
     </row>
   </sheetData>
@@ -3960,19 +3960,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.06E-05</v>
+        <v>2.12E-08</v>
       </c>
       <c r="E4">
-        <v>0.000326</v>
+        <v>6.51E-07</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.38E-06</v>
+        <v>2.77E-09</v>
       </c>
       <c r="H4">
-        <v>0.000677</v>
+        <v>1.89E-08</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3986,19 +3986,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.000575</v>
+        <v>1.15E-06</v>
       </c>
       <c r="E5">
-        <v>0.0177</v>
+        <v>3.53E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.54E-05</v>
+        <v>9.080000000000001E-08</v>
       </c>
       <c r="H5">
-        <v>0.0367</v>
+        <v>1.03E-06</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4012,19 +4012,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.48E-06</v>
+        <v>1.1E-08</v>
       </c>
       <c r="E6">
-        <v>0.000168</v>
+        <v>3.37E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9.7E-07</v>
+        <v>1.94E-09</v>
       </c>
       <c r="H6">
-        <v>0.00035</v>
+        <v>9.79E-09</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4038,19 +4038,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00205</v>
+        <v>4.1E-06</v>
       </c>
       <c r="E7">
-        <v>0.063</v>
+        <v>0.000126</v>
       </c>
       <c r="F7">
-        <v>0.00131</v>
+        <v>2.63E-06</v>
       </c>
       <c r="G7">
-        <v>0.000401</v>
+        <v>8.01E-07</v>
       </c>
       <c r="H7">
-        <v>0.131</v>
+        <v>3.66E-06</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.000797</v>
+        <v>1.59E-06</v>
       </c>
       <c r="E8">
-        <v>0.0245</v>
+        <v>4.9E-05</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00214</v>
+        <v>4.28E-06</v>
       </c>
       <c r="H8">
-        <v>0.0509</v>
+        <v>1.42E-06</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4090,19 +4090,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.17E-06</v>
+        <v>2.33E-09</v>
       </c>
       <c r="E9">
-        <v>3.58E-05</v>
+        <v>7.160000000000001E-08</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.67E-05</v>
+        <v>3.35E-08</v>
       </c>
       <c r="H9">
-        <v>7.449999999999999E-05</v>
+        <v>2.08E-09</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4116,19 +4116,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.98E-12</v>
+        <v>1.4E-14</v>
       </c>
       <c r="E10">
-        <v>2.14E-10</v>
+        <v>4.29E-13</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.11E-12</v>
+        <v>8.21E-15</v>
       </c>
       <c r="H10">
-        <v>4.46E-10</v>
+        <v>1.25E-14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4142,19 +4142,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.75E-10</v>
+        <v>3.49E-13</v>
       </c>
       <c r="E11">
-        <v>5.37E-09</v>
+        <v>1.07E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.64E-09</v>
+        <v>3.29E-12</v>
       </c>
       <c r="H11">
-        <v>1.12E-08</v>
+        <v>3.12E-13</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4168,19 +4168,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.46E-11</v>
+        <v>2.91E-14</v>
       </c>
       <c r="E12">
-        <v>4.47E-10</v>
+        <v>8.95E-13</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.54E-12</v>
+        <v>3.08E-15</v>
       </c>
       <c r="H12">
-        <v>9.3E-10</v>
+        <v>2.6E-14</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4194,19 +4194,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.19E-06</v>
+        <v>6.39E-09</v>
       </c>
       <c r="E13">
-        <v>9.81E-05</v>
+        <v>1.96E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.08E-07</v>
+        <v>4.17E-10</v>
       </c>
       <c r="H13">
-        <v>0.000204</v>
+        <v>5.7E-09</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4220,19 +4220,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.14E-05</v>
+        <v>1.23E-07</v>
       </c>
       <c r="E14">
-        <v>0.00189</v>
+        <v>3.77E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.42E-05</v>
+        <v>2.83E-08</v>
       </c>
       <c r="H14">
-        <v>0.00392</v>
+        <v>1.1E-07</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.78E-06</v>
+        <v>1.96E-08</v>
       </c>
       <c r="E4">
-        <v>0.000321</v>
+        <v>6.42E-07</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.38E-06</v>
+        <v>2.77E-09</v>
       </c>
       <c r="H4">
-        <v>0.000663</v>
+        <v>1.85E-08</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4330,19 +4330,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.000531</v>
+        <v>1.06E-06</v>
       </c>
       <c r="E5">
-        <v>0.0174</v>
+        <v>3.48E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.54E-05</v>
+        <v>9.080000000000001E-08</v>
       </c>
       <c r="H5">
-        <v>0.036</v>
+        <v>1.01E-06</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4356,19 +4356,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.06E-06</v>
+        <v>1.01E-08</v>
       </c>
       <c r="E6">
-        <v>0.000166</v>
+        <v>3.32E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9.69E-07</v>
+        <v>1.94E-09</v>
       </c>
       <c r="H6">
-        <v>0.000343</v>
+        <v>9.58E-09</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4382,19 +4382,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00189</v>
+        <v>3.78E-06</v>
       </c>
       <c r="E7">
-        <v>0.0621</v>
+        <v>0.000124</v>
       </c>
       <c r="F7">
-        <v>0.00175</v>
+        <v>3.51E-06</v>
       </c>
       <c r="G7">
-        <v>0.0004</v>
+        <v>8.01E-07</v>
       </c>
       <c r="H7">
-        <v>0.128</v>
+        <v>3.58E-06</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4408,19 +4408,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.000735</v>
+        <v>1.47E-06</v>
       </c>
       <c r="E8">
-        <v>0.0241</v>
+        <v>4.83E-05</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00214</v>
+        <v>4.28E-06</v>
       </c>
       <c r="H8">
-        <v>0.0498</v>
+        <v>1.39E-06</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4434,19 +4434,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.08E-06</v>
+        <v>2.15E-09</v>
       </c>
       <c r="E9">
-        <v>3.53E-05</v>
+        <v>7.06E-08</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.67E-05</v>
+        <v>3.35E-08</v>
       </c>
       <c r="H9">
-        <v>7.29E-05</v>
+        <v>2.04E-09</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4460,19 +4460,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.44E-12</v>
+        <v>1.29E-14</v>
       </c>
       <c r="E10">
-        <v>2.11E-10</v>
+        <v>4.23E-13</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.1E-12</v>
+        <v>8.21E-15</v>
       </c>
       <c r="H10">
-        <v>4.36E-10</v>
+        <v>1.22E-14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4486,19 +4486,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.61E-10</v>
+        <v>3.23E-13</v>
       </c>
       <c r="E11">
-        <v>5.29E-09</v>
+        <v>1.06E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.64E-09</v>
+        <v>3.28E-12</v>
       </c>
       <c r="H11">
-        <v>1.09E-08</v>
+        <v>3.06E-13</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4512,19 +4512,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.34E-11</v>
+        <v>2.69E-14</v>
       </c>
       <c r="E12">
-        <v>4.41E-10</v>
+        <v>8.82E-13</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.54E-12</v>
+        <v>3.08E-15</v>
       </c>
       <c r="H12">
-        <v>9.11E-10</v>
+        <v>2.55E-14</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4538,19 +4538,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.95E-06</v>
+        <v>5.89E-09</v>
       </c>
       <c r="E13">
-        <v>9.670000000000001E-05</v>
+        <v>1.93E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.08E-07</v>
+        <v>4.17E-10</v>
       </c>
       <c r="H13">
-        <v>0.0002</v>
+        <v>5.58E-09</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4564,19 +4564,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.67E-05</v>
+        <v>1.13E-07</v>
       </c>
       <c r="E14">
-        <v>0.00186</v>
+        <v>3.72E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.41E-05</v>
+        <v>2.83E-08</v>
       </c>
       <c r="H14">
-        <v>0.00384</v>
+        <v>1.07E-07</v>
       </c>
     </row>
   </sheetData>
@@ -4648,19 +4648,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.17E-05</v>
+        <v>2.33E-08</v>
       </c>
       <c r="E4">
-        <v>0.000376</v>
+        <v>7.52E-07</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.38E-06</v>
+        <v>2.77E-09</v>
       </c>
       <c r="H4">
-        <v>0.00062</v>
+        <v>1.73E-08</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4674,19 +4674,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.000633</v>
+        <v>1.27E-06</v>
       </c>
       <c r="E5">
-        <v>0.0204</v>
+        <v>4.08E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.54E-05</v>
+        <v>9.09E-08</v>
       </c>
       <c r="H5">
-        <v>0.0336</v>
+        <v>9.41E-07</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4700,19 +4700,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.03E-06</v>
+        <v>1.21E-08</v>
       </c>
       <c r="E6">
-        <v>0.000194</v>
+        <v>3.89E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9.7E-07</v>
+        <v>1.94E-09</v>
       </c>
       <c r="H6">
-        <v>0.000321</v>
+        <v>8.97E-09</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4726,19 +4726,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00225</v>
+        <v>4.51E-06</v>
       </c>
       <c r="E7">
-        <v>0.0727</v>
+        <v>0.000145</v>
       </c>
       <c r="F7">
-        <v>0.00204</v>
+        <v>4.07E-06</v>
       </c>
       <c r="G7">
-        <v>0.000401</v>
+        <v>8.01E-07</v>
       </c>
       <c r="H7">
-        <v>0.12</v>
+        <v>3.35E-06</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4752,19 +4752,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.000877</v>
+        <v>1.75E-06</v>
       </c>
       <c r="E8">
-        <v>0.0283</v>
+        <v>5.66E-05</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00214</v>
+        <v>4.28E-06</v>
       </c>
       <c r="H8">
-        <v>0.0466</v>
+        <v>1.3E-06</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4778,19 +4778,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.28E-06</v>
+        <v>2.57E-09</v>
       </c>
       <c r="E9">
-        <v>4.14E-05</v>
+        <v>8.28E-08</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.67E-05</v>
+        <v>3.35E-08</v>
       </c>
       <c r="H9">
-        <v>6.82E-05</v>
+        <v>1.91E-09</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4804,19 +4804,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.68E-12</v>
+        <v>1.54E-14</v>
       </c>
       <c r="E10">
-        <v>2.48E-10</v>
+        <v>4.95E-13</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.11E-12</v>
+        <v>8.21E-15</v>
       </c>
       <c r="H10">
-        <v>4.08E-10</v>
+        <v>1.14E-14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4830,19 +4830,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.92E-10</v>
+        <v>3.84E-13</v>
       </c>
       <c r="E11">
-        <v>6.2E-09</v>
+        <v>1.24E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.64E-09</v>
+        <v>3.29E-12</v>
       </c>
       <c r="H11">
-        <v>1.02E-08</v>
+        <v>2.86E-13</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4856,19 +4856,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.6E-11</v>
+        <v>3.2E-14</v>
       </c>
       <c r="E12">
-        <v>5.17E-10</v>
+        <v>1.03E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.54E-12</v>
+        <v>3.08E-15</v>
       </c>
       <c r="H12">
-        <v>8.52E-10</v>
+        <v>2.38E-14</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4882,19 +4882,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.51E-06</v>
+        <v>7.03E-09</v>
       </c>
       <c r="E13">
-        <v>0.000113</v>
+        <v>2.27E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.08E-07</v>
+        <v>4.17E-10</v>
       </c>
       <c r="H13">
-        <v>0.000187</v>
+        <v>5.22E-09</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4908,19 +4908,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.75E-05</v>
+        <v>1.35E-07</v>
       </c>
       <c r="E14">
-        <v>0.00218</v>
+        <v>4.36E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.42E-05</v>
+        <v>2.83E-08</v>
       </c>
       <c r="H14">
-        <v>0.00359</v>
+        <v>1E-07</v>
       </c>
     </row>
   </sheetData>
@@ -4992,19 +4992,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.11E-05</v>
+        <v>2.22E-08</v>
       </c>
       <c r="E4">
-        <v>0.00037</v>
+        <v>7.4E-07</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.38E-06</v>
+        <v>2.76E-09</v>
       </c>
       <c r="H4">
-        <v>0.000663</v>
+        <v>1.86E-08</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5018,19 +5018,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.000603</v>
+        <v>1.21E-06</v>
       </c>
       <c r="E5">
-        <v>0.0201</v>
+        <v>4.02E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.53E-05</v>
+        <v>9.07E-08</v>
       </c>
       <c r="H5">
-        <v>0.036</v>
+        <v>1.01E-06</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5044,19 +5044,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.75E-06</v>
+        <v>1.15E-08</v>
       </c>
       <c r="E6">
-        <v>0.000191</v>
+        <v>3.83E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9.680000000000001E-07</v>
+        <v>1.94E-09</v>
       </c>
       <c r="H6">
-        <v>0.000343</v>
+        <v>9.6E-09</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5070,19 +5070,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00215</v>
+        <v>4.3E-06</v>
       </c>
       <c r="E7">
-        <v>0.0716</v>
+        <v>0.000143</v>
       </c>
       <c r="F7">
-        <v>0.00244</v>
+        <v>4.87E-06</v>
       </c>
       <c r="G7">
-        <v>0.0004</v>
+        <v>8E-07</v>
       </c>
       <c r="H7">
-        <v>0.128</v>
+        <v>3.59E-06</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5096,19 +5096,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.000836</v>
+        <v>1.67E-06</v>
       </c>
       <c r="E8">
-        <v>0.0278</v>
+        <v>5.56E-05</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00214</v>
+        <v>4.27E-06</v>
       </c>
       <c r="H8">
-        <v>0.0499</v>
+        <v>1.4E-06</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5122,19 +5122,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.22E-06</v>
+        <v>2.45E-09</v>
       </c>
       <c r="E9">
-        <v>4.07E-05</v>
+        <v>8.14E-08</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.67E-05</v>
+        <v>3.34E-08</v>
       </c>
       <c r="H9">
-        <v>7.3E-05</v>
+        <v>2.04E-09</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5148,19 +5148,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.32E-12</v>
+        <v>1.46E-14</v>
       </c>
       <c r="E10">
-        <v>2.44E-10</v>
+        <v>4.87E-13</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.1E-12</v>
+        <v>8.189999999999999E-15</v>
       </c>
       <c r="H10">
-        <v>4.37E-10</v>
+        <v>1.22E-14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5174,19 +5174,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.83E-10</v>
+        <v>3.67E-13</v>
       </c>
       <c r="E11">
-        <v>6.1E-09</v>
+        <v>1.22E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.64E-09</v>
+        <v>3.28E-12</v>
       </c>
       <c r="H11">
-        <v>1.09E-08</v>
+        <v>3.06E-13</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5200,19 +5200,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.53E-11</v>
+        <v>3.06E-14</v>
       </c>
       <c r="E12">
-        <v>5.09E-10</v>
+        <v>1.02E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.54E-12</v>
+        <v>3.07E-15</v>
       </c>
       <c r="H12">
-        <v>9.12E-10</v>
+        <v>2.55E-14</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5226,19 +5226,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.35E-06</v>
+        <v>6.7E-09</v>
       </c>
       <c r="E13">
-        <v>0.000112</v>
+        <v>2.23E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.08E-07</v>
+        <v>4.16E-10</v>
       </c>
       <c r="H13">
-        <v>0.0002</v>
+        <v>5.59E-09</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5252,19 +5252,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.439999999999999E-05</v>
+        <v>1.29E-07</v>
       </c>
       <c r="E14">
-        <v>0.00214</v>
+        <v>4.29E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.41E-05</v>
+        <v>2.83E-08</v>
       </c>
       <c r="H14">
-        <v>0.00384</v>
+        <v>1.07E-07</v>
       </c>
     </row>
   </sheetData>
@@ -5336,19 +5336,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.34E-05</v>
+        <v>2.67E-08</v>
       </c>
       <c r="E4">
-        <v>0.000446</v>
+        <v>8.92E-07</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.38E-06</v>
+        <v>2.76E-09</v>
       </c>
       <c r="H4">
-        <v>0.000697</v>
+        <v>1.95E-08</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5362,19 +5362,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.000725</v>
+        <v>1.45E-06</v>
       </c>
       <c r="E5">
-        <v>0.0242</v>
+        <v>4.84E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.53E-05</v>
+        <v>9.05E-08</v>
       </c>
       <c r="H5">
-        <v>0.0379</v>
+        <v>1.06E-06</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5388,19 +5388,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.91E-06</v>
+        <v>1.38E-08</v>
       </c>
       <c r="E6">
-        <v>0.000231</v>
+        <v>4.61E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>9.659999999999999E-07</v>
+        <v>1.93E-09</v>
       </c>
       <c r="H6">
-        <v>0.000361</v>
+        <v>1.01E-08</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5414,19 +5414,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00258</v>
+        <v>5.17E-06</v>
       </c>
       <c r="E7">
-        <v>0.0863</v>
+        <v>0.000173</v>
       </c>
       <c r="F7">
-        <v>0.00263</v>
+        <v>5.26E-06</v>
       </c>
       <c r="G7">
-        <v>0.000399</v>
+        <v>7.99E-07</v>
       </c>
       <c r="H7">
-        <v>0.135</v>
+        <v>3.77E-06</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5440,19 +5440,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.001</v>
+        <v>2.01E-06</v>
       </c>
       <c r="E8">
-        <v>0.0335</v>
+        <v>6.71E-05</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00213</v>
+        <v>4.27E-06</v>
       </c>
       <c r="H8">
-        <v>0.0524</v>
+        <v>1.47E-06</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5466,19 +5466,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.47E-06</v>
+        <v>2.94E-09</v>
       </c>
       <c r="E9">
-        <v>4.91E-05</v>
+        <v>9.820000000000001E-08</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.67E-05</v>
+        <v>3.34E-08</v>
       </c>
       <c r="H9">
-        <v>7.669999999999999E-05</v>
+        <v>2.15E-09</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5492,19 +5492,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.79E-12</v>
+        <v>1.76E-14</v>
       </c>
       <c r="E10">
-        <v>2.94E-10</v>
+        <v>5.87E-13</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.09E-12</v>
+        <v>8.18E-15</v>
       </c>
       <c r="H10">
-        <v>4.59E-10</v>
+        <v>1.28E-14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5518,19 +5518,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.2E-10</v>
+        <v>4.4E-13</v>
       </c>
       <c r="E11">
-        <v>7.35E-09</v>
+        <v>1.47E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.64E-09</v>
+        <v>3.28E-12</v>
       </c>
       <c r="H11">
-        <v>1.15E-08</v>
+        <v>3.22E-13</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5544,19 +5544,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.84E-11</v>
+        <v>3.67E-14</v>
       </c>
       <c r="E12">
-        <v>6.13E-10</v>
+        <v>1.23E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.53E-12</v>
+        <v>3.07E-15</v>
       </c>
       <c r="H12">
-        <v>9.590000000000001E-10</v>
+        <v>2.68E-14</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5570,19 +5570,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.02E-06</v>
+        <v>8.049999999999999E-09</v>
       </c>
       <c r="E13">
-        <v>0.000134</v>
+        <v>2.69E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.08E-07</v>
+        <v>4.15E-10</v>
       </c>
       <c r="H13">
-        <v>0.00021</v>
+        <v>5.88E-09</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5596,19 +5596,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.74E-05</v>
+        <v>1.55E-07</v>
       </c>
       <c r="E14">
-        <v>0.00258</v>
+        <v>5.17E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.41E-05</v>
+        <v>2.82E-08</v>
       </c>
       <c r="H14">
-        <v>0.00404</v>
+        <v>1.13E-07</v>
       </c>
     </row>
   </sheetData>
@@ -5677,22 +5677,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>5.69E-07</v>
+        <v>1.14E-09</v>
       </c>
       <c r="D4">
-        <v>1.13E-05</v>
+        <v>2.25E-08</v>
       </c>
       <c r="E4">
-        <v>0.00039</v>
+        <v>7.8E-07</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.9E-06</v>
+        <v>3.79E-09</v>
       </c>
       <c r="H4">
-        <v>0.00493</v>
+        <v>1.38E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5703,22 +5703,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>2.75E-05</v>
+        <v>5.49E-08</v>
       </c>
       <c r="D5">
-        <v>0.000611</v>
+        <v>1.22E-06</v>
       </c>
       <c r="E5">
-        <v>0.0212</v>
+        <v>4.23E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.219999999999999E-05</v>
+        <v>1.24E-07</v>
       </c>
       <c r="H5">
-        <v>0.268</v>
+        <v>7.49E-06</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5729,22 +5729,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>2.92E-07</v>
+        <v>5.83E-10</v>
       </c>
       <c r="D6">
-        <v>5.82E-06</v>
+        <v>1.16E-08</v>
       </c>
       <c r="E6">
-        <v>0.000202</v>
+        <v>4.03E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.33E-06</v>
+        <v>2.66E-09</v>
       </c>
       <c r="H6">
-        <v>0.00255</v>
+        <v>7.13E-08</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5755,22 +5755,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0.000101</v>
+        <v>2.02E-07</v>
       </c>
       <c r="D7">
-        <v>0.00218</v>
+        <v>4.36E-06</v>
       </c>
       <c r="E7">
-        <v>0.07539999999999999</v>
+        <v>0.000151</v>
       </c>
       <c r="F7">
-        <v>0.00244</v>
+        <v>4.88E-06</v>
       </c>
       <c r="G7">
-        <v>0.000549</v>
+        <v>1.1E-06</v>
       </c>
       <c r="H7">
-        <v>0.954</v>
+        <v>2.67E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5781,22 +5781,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>5.47E-05</v>
+        <v>1.09E-07</v>
       </c>
       <c r="D8">
-        <v>0.000847</v>
+        <v>1.69E-06</v>
       </c>
       <c r="E8">
-        <v>0.0293</v>
+        <v>5.86E-05</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00293</v>
+        <v>5.86E-06</v>
       </c>
       <c r="H8">
-        <v>0.371</v>
+        <v>1.04E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5807,22 +5807,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>7.87E-08</v>
+        <v>1.57E-10</v>
       </c>
       <c r="D9">
-        <v>1.24E-06</v>
+        <v>2.48E-09</v>
       </c>
       <c r="E9">
-        <v>4.29E-05</v>
+        <v>8.58E-08</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.29E-05</v>
+        <v>4.58E-08</v>
       </c>
       <c r="H9">
-        <v>0.000543</v>
+        <v>1.52E-08</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5833,22 +5833,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>5.09E-13</v>
+        <v>1.02E-15</v>
       </c>
       <c r="D10">
-        <v>7.42E-12</v>
+        <v>1.48E-14</v>
       </c>
       <c r="E10">
-        <v>2.57E-10</v>
+        <v>5.13E-13</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.62E-12</v>
+        <v>1.12E-14</v>
       </c>
       <c r="H10">
-        <v>3.25E-09</v>
+        <v>9.08E-14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5859,22 +5859,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>7.23E-12</v>
+        <v>1.45E-14</v>
       </c>
       <c r="D11">
-        <v>1.86E-10</v>
+        <v>3.71E-13</v>
       </c>
       <c r="E11">
-        <v>6.43E-09</v>
+        <v>1.29E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.25E-09</v>
+        <v>4.5E-12</v>
       </c>
       <c r="H11">
-        <v>8.129999999999999E-08</v>
+        <v>2.27E-12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5885,22 +5885,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>3.5E-11</v>
+        <v>7E-14</v>
       </c>
       <c r="D12">
-        <v>1.55E-11</v>
+        <v>3.1E-14</v>
       </c>
       <c r="E12">
-        <v>5.36E-10</v>
+        <v>1.07E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.11E-12</v>
+        <v>4.22E-15</v>
       </c>
       <c r="H12">
-        <v>6.78E-09</v>
+        <v>1.9E-13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5911,22 +5911,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>1.44E-07</v>
+        <v>2.88E-10</v>
       </c>
       <c r="D13">
-        <v>3.39E-06</v>
+        <v>6.79E-09</v>
       </c>
       <c r="E13">
-        <v>0.000117</v>
+        <v>2.35E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.85E-07</v>
+        <v>5.71E-10</v>
       </c>
       <c r="H13">
-        <v>0.00149</v>
+        <v>4.16E-08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5937,22 +5937,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>3.72E-06</v>
+        <v>7.43E-09</v>
       </c>
       <c r="D14">
-        <v>6.52E-05</v>
+        <v>1.3E-07</v>
       </c>
       <c r="E14">
-        <v>0.00226</v>
+        <v>4.52E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.94E-05</v>
+        <v>3.88E-08</v>
       </c>
       <c r="H14">
-        <v>0.0286</v>
+        <v>7.99E-07</v>
       </c>
     </row>
   </sheetData>
@@ -6021,22 +6021,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>5.69E-07</v>
+        <v>1.14E-09</v>
       </c>
       <c r="D4">
-        <v>2.93E-05</v>
+        <v>5.86E-08</v>
       </c>
       <c r="E4">
-        <v>0.000934</v>
+        <v>1.87E-06</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.84E-06</v>
+        <v>3.68E-09</v>
       </c>
       <c r="H4">
-        <v>0.0063</v>
+        <v>1.76E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6047,22 +6047,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>2.75E-05</v>
+        <v>5.49E-08</v>
       </c>
       <c r="D5">
-        <v>0.00159</v>
+        <v>3.18E-06</v>
       </c>
       <c r="E5">
-        <v>0.0507</v>
+        <v>0.000101</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.03E-05</v>
+        <v>1.21E-07</v>
       </c>
       <c r="H5">
-        <v>0.342</v>
+        <v>9.56E-06</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6073,22 +6073,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>2.92E-07</v>
+        <v>5.83E-10</v>
       </c>
       <c r="D6">
-        <v>1.51E-05</v>
+        <v>3.03E-08</v>
       </c>
       <c r="E6">
-        <v>0.000483</v>
+        <v>9.659999999999999E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.29E-06</v>
+        <v>2.58E-09</v>
       </c>
       <c r="H6">
-        <v>0.00326</v>
+        <v>9.11E-08</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6099,22 +6099,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0.000101</v>
+        <v>2.02E-07</v>
       </c>
       <c r="D7">
-        <v>0.00566</v>
+        <v>1.13E-05</v>
       </c>
       <c r="E7">
-        <v>0.181</v>
+        <v>0.000361</v>
       </c>
       <c r="F7">
-        <v>0.0041</v>
+        <v>8.199999999999999E-06</v>
       </c>
       <c r="G7">
-        <v>0.000532</v>
+        <v>1.06E-06</v>
       </c>
       <c r="H7">
-        <v>1.22</v>
+        <v>3.41E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6125,22 +6125,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>5.47E-05</v>
+        <v>1.09E-07</v>
       </c>
       <c r="D8">
-        <v>0.0022</v>
+        <v>4.4E-06</v>
       </c>
       <c r="E8">
-        <v>0.0702</v>
+        <v>0.00014</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00284</v>
+        <v>5.69E-06</v>
       </c>
       <c r="H8">
-        <v>0.474</v>
+        <v>1.32E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6151,22 +6151,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>7.87E-08</v>
+        <v>1.57E-10</v>
       </c>
       <c r="D9">
-        <v>3.22E-06</v>
+        <v>6.44E-09</v>
       </c>
       <c r="E9">
-        <v>0.000103</v>
+        <v>2.06E-07</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.22E-05</v>
+        <v>4.45E-08</v>
       </c>
       <c r="H9">
-        <v>0.000693</v>
+        <v>1.94E-08</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6177,22 +6177,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>5.09E-13</v>
+        <v>1.02E-15</v>
       </c>
       <c r="D10">
-        <v>1.93E-11</v>
+        <v>3.86E-14</v>
       </c>
       <c r="E10">
-        <v>6.15E-10</v>
+        <v>1.23E-12</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.45E-12</v>
+        <v>1.09E-14</v>
       </c>
       <c r="H10">
-        <v>4.15E-09</v>
+        <v>1.16E-13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6203,22 +6203,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>7.23E-12</v>
+        <v>1.45E-14</v>
       </c>
       <c r="D11">
-        <v>4.83E-10</v>
+        <v>9.659999999999999E-13</v>
       </c>
       <c r="E11">
-        <v>1.54E-08</v>
+        <v>3.08E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.18E-09</v>
+        <v>4.36E-12</v>
       </c>
       <c r="H11">
-        <v>1.04E-07</v>
+        <v>2.91E-12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6229,22 +6229,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>3.5E-11</v>
+        <v>7E-14</v>
       </c>
       <c r="D12">
-        <v>4.02E-11</v>
+        <v>8.05E-14</v>
       </c>
       <c r="E12">
-        <v>1.28E-09</v>
+        <v>2.57E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.04E-12</v>
+        <v>4.09E-15</v>
       </c>
       <c r="H12">
-        <v>8.659999999999999E-09</v>
+        <v>2.42E-13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6255,22 +6255,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>1.44E-07</v>
+        <v>2.88E-10</v>
       </c>
       <c r="D13">
-        <v>8.82E-06</v>
+        <v>1.76E-08</v>
       </c>
       <c r="E13">
-        <v>0.000281</v>
+        <v>5.630000000000001E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.77E-07</v>
+        <v>5.53E-10</v>
       </c>
       <c r="H13">
-        <v>0.0019</v>
+        <v>5.31E-08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6281,22 +6281,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>3.72E-06</v>
+        <v>7.43E-09</v>
       </c>
       <c r="D14">
-        <v>0.00017</v>
+        <v>3.39E-07</v>
       </c>
       <c r="E14">
-        <v>0.00541</v>
+        <v>1.08E-05</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.88E-05</v>
+        <v>3.76E-08</v>
       </c>
       <c r="H14">
-        <v>0.0365</v>
+        <v>1.02E-06</v>
       </c>
     </row>
   </sheetData>
@@ -6365,22 +6365,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>5.69E-07</v>
+        <v>1.14E-09</v>
       </c>
       <c r="D4">
-        <v>1.35E-05</v>
+        <v>2.71E-08</v>
       </c>
       <c r="E4">
-        <v>0.00051</v>
+        <v>1.02E-06</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.85E-06</v>
+        <v>3.69E-09</v>
       </c>
       <c r="H4">
-        <v>0.00601</v>
+        <v>1.68E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6391,22 +6391,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>2.75E-05</v>
+        <v>5.49E-08</v>
       </c>
       <c r="D5">
-        <v>0.000735</v>
+        <v>1.47E-06</v>
       </c>
       <c r="E5">
-        <v>0.0277</v>
+        <v>5.54E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.06E-05</v>
+        <v>1.21E-07</v>
       </c>
       <c r="H5">
-        <v>0.326</v>
+        <v>9.120000000000001E-06</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6417,22 +6417,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>2.92E-07</v>
+        <v>5.83E-10</v>
       </c>
       <c r="D6">
-        <v>7.01E-06</v>
+        <v>1.4E-08</v>
       </c>
       <c r="E6">
-        <v>0.000264</v>
+        <v>5.28E-07</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.29E-06</v>
+        <v>2.59E-09</v>
       </c>
       <c r="H6">
-        <v>0.00311</v>
+        <v>8.69E-08</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6443,22 +6443,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0.000101</v>
+        <v>2.02E-07</v>
       </c>
       <c r="D7">
-        <v>0.00262</v>
+        <v>5.24E-06</v>
       </c>
       <c r="E7">
-        <v>0.0987</v>
+        <v>0.000197</v>
       </c>
       <c r="F7">
-        <v>0.00546</v>
+        <v>1.09E-05</v>
       </c>
       <c r="G7">
-        <v>0.000534</v>
+        <v>1.07E-06</v>
       </c>
       <c r="H7">
-        <v>1.16</v>
+        <v>3.25E-05</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6469,22 +6469,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>5.47E-05</v>
+        <v>1.09E-07</v>
       </c>
       <c r="D8">
-        <v>0.00102</v>
+        <v>2.04E-06</v>
       </c>
       <c r="E8">
-        <v>0.0384</v>
+        <v>7.68E-05</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00286</v>
+        <v>5.71E-06</v>
       </c>
       <c r="H8">
-        <v>0.452</v>
+        <v>1.26E-05</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6495,22 +6495,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>7.87E-08</v>
+        <v>1.57E-10</v>
       </c>
       <c r="D9">
-        <v>1.49E-06</v>
+        <v>2.98E-09</v>
       </c>
       <c r="E9">
-        <v>5.62E-05</v>
+        <v>1.12E-07</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.23E-05</v>
+        <v>4.46E-08</v>
       </c>
       <c r="H9">
-        <v>0.000661</v>
+        <v>1.85E-08</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6521,22 +6521,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>5.09E-13</v>
+        <v>1.02E-15</v>
       </c>
       <c r="D10">
-        <v>8.92E-12</v>
+        <v>1.78E-14</v>
       </c>
       <c r="E10">
-        <v>3.36E-10</v>
+        <v>6.72E-13</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.47E-12</v>
+        <v>1.09E-14</v>
       </c>
       <c r="H10">
-        <v>3.96E-09</v>
+        <v>1.11E-13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6547,22 +6547,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>7.23E-12</v>
+        <v>1.45E-14</v>
       </c>
       <c r="D11">
-        <v>2.23E-10</v>
+        <v>4.47E-13</v>
       </c>
       <c r="E11">
-        <v>8.42E-09</v>
+        <v>1.68E-11</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.19E-09</v>
+        <v>4.38E-12</v>
       </c>
       <c r="H11">
-        <v>9.909999999999999E-08</v>
+        <v>2.77E-12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6573,22 +6573,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>3.5E-11</v>
+        <v>7E-14</v>
       </c>
       <c r="D12">
-        <v>1.86E-11</v>
+        <v>3.72E-14</v>
       </c>
       <c r="E12">
-        <v>7.02E-10</v>
+        <v>1.4E-12</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.05E-12</v>
+        <v>4.1E-15</v>
       </c>
       <c r="H12">
-        <v>8.259999999999999E-09</v>
+        <v>2.31E-13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6599,22 +6599,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>1.44E-07</v>
+        <v>2.88E-10</v>
       </c>
       <c r="D13">
-        <v>4.08E-06</v>
+        <v>8.16E-09</v>
       </c>
       <c r="E13">
-        <v>0.000154</v>
+        <v>3.08E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.78E-07</v>
+        <v>5.56E-10</v>
       </c>
       <c r="H13">
-        <v>0.00181</v>
+        <v>5.07E-08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6625,22 +6625,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>3.72E-06</v>
+        <v>7.43E-09</v>
       </c>
       <c r="D14">
-        <v>7.85E-05</v>
+        <v>1.57E-07</v>
       </c>
       <c r="E14">
-        <v>0.00296</v>
+        <v>5.91E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.89E-05</v>
+        <v>3.77E-08</v>
       </c>
       <c r="H14">
-        <v>0.0348</v>
+        <v>9.739999999999999E-07</v>
       </c>
     </row>
   </sheetData>
